--- a/Planning en voortgang/burndown_Verkiezingsopdracht1.xlsx
+++ b/Planning en voortgang/burndown_Verkiezingsopdracht1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\EXAMENOPDRACHT---VERKIEZING\Planning en voortgang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0E87F4-0087-477C-8C99-12661ACF7C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49361BF-7219-4B75-9164-8EDB193E362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Taak</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>Nog doen</t>
-  </si>
-  <si>
-    <t>US1</t>
-  </si>
-  <si>
-    <t>US2</t>
-  </si>
-  <si>
-    <t>US3</t>
   </si>
   <si>
     <t>homepage-design</t>
@@ -609,7 +600,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$43</c:f>
+              <c:f>BurndownChart!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -674,33 +665,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$43:$I$43</c:f>
+              <c:f>BurndownChart!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +708,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$44</c:f>
+              <c:f>BurndownChart!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -782,12 +773,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$44:$I$44</c:f>
+              <c:f>BurndownChart!$B$39:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>56</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1614,7 +1605,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1960,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2024,7 +2015,9 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2034,13 +2027,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2051,13 +2044,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2067,14 +2060,14 @@
       <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>10</v>
+      <c r="A6" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2084,14 +2077,14 @@
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>6</v>
+      <c r="A7" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2102,13 +2095,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2119,15 +2112,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2136,15 +2129,15 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2152,15 +2145,15 @@
       <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>7</v>
+      <c r="A11" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2177,7 +2170,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2194,7 +2187,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2207,11 +2200,11 @@
         <v>20</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2224,11 +2217,11 @@
         <v>21</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2245,7 +2238,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2258,11 +2251,11 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2275,11 +2268,11 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2295,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2308,121 +2301,121 @@
       <c r="A20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="22"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="22"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="22"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="26">
         <v>2</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="26">
         <v>2</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="23"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="26">
         <v>2</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
@@ -2434,7 +2427,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -2446,12 +2439,12 @@
         <v>34</v>
       </c>
       <c r="B28" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -2463,79 +2456,81 @@
         <v>35</v>
       </c>
       <c r="B29" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="B30" s="26">
         <v>2</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -2543,16 +2538,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -2560,16 +2555,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -2577,230 +2572,147 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="26">
-        <v>3</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="26">
+      <c r="A38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <f>SUM(B3:B23)</f>
+        <v>48</v>
+      </c>
+      <c r="C38" s="9">
+        <f>B$38-SUM(C3:C23)</f>
+        <v>48</v>
+      </c>
+      <c r="D38" s="9">
+        <f>C$38-SUM(D3:D23)</f>
+        <v>48</v>
+      </c>
+      <c r="E38" s="9">
+        <f>D$38-SUM(E3:E23)</f>
+        <v>48</v>
+      </c>
+      <c r="F38" s="9">
+        <f>E$38-SUM(F3:F23)</f>
+        <v>48</v>
+      </c>
+      <c r="G38" s="9">
+        <f>F$38-SUM(G3:G23)</f>
+        <v>48</v>
+      </c>
+      <c r="H38" s="9">
+        <f>G$38-SUM(H3:H23)</f>
+        <v>48</v>
+      </c>
+      <c r="I38" s="10">
+        <f>H$38-SUM(I3:I23)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="26">
-        <v>3</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="26">
-        <v>1</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
-      <c r="B42" s="26">
-        <v>1</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="8">
-        <f>SUM(B3:B26)</f>
-        <v>56</v>
-      </c>
-      <c r="C43" s="9">
-        <f t="shared" ref="C43:I43" si="0">B$43-SUM(C3:C26)</f>
-        <v>56</v>
-      </c>
-      <c r="D43" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="F43" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="G43" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I43" s="10">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="12">
-        <f>B43</f>
-        <v>56</v>
-      </c>
-      <c r="C44" s="13" t="e">
-        <f t="shared" ref="C44:I44" si="1">B$44-$B$44/COUNT($C$1:$I$1)</f>
+      <c r="B39" s="12">
+        <f>B38</f>
+        <v>48</v>
+      </c>
+      <c r="C39" s="13" t="e">
+        <f>B$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="D39" s="13" t="e">
+        <f>C$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="E39" s="13" t="e">
+        <f>D$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="F39" s="13" t="e">
+        <f>E$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="G39" s="13" t="e">
+        <f>F$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="13" t="e">
-        <f t="shared" si="1"/>
+      <c r="H39" s="13" t="e">
+        <f>G$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="14" t="e">
-        <f t="shared" si="1"/>
+      <c r="I39" s="14" t="e">
+        <f>H$39-$B$39/COUNT($C$1:$I$1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/2" xr:uid="{B9F1B892-8508-4D71-828F-91227B55AEC1}"/>
-    <hyperlink ref="A9" r:id="rId2" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/6" xr:uid="{5A90BA1C-F2CB-4810-B2B7-A1CE1D379B0A}"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/7" xr:uid="{43A1C437-67A0-42A5-AFB0-2E1A0F3CBCE6}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/11" xr:uid="{7926A5EA-1901-4EFB-AD26-CE326403FADA}"/>
-    <hyperlink ref="A13" r:id="rId5" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/17" xr:uid="{D42DC0AA-9DB4-41DE-9C7E-7CBA09CF2B1E}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/18" xr:uid="{E54BC07D-A892-427A-B857-8AA0CA885AB2}"/>
-    <hyperlink ref="A15" r:id="rId7" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/19" xr:uid="{C33EE167-F5CD-4991-BADA-6CC400D5AFC2}"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/20" xr:uid="{79752640-E243-4545-89ED-6722894B07B6}"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/21" xr:uid="{356D0458-323F-4595-AF4E-3D3842EDB127}"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/22" xr:uid="{1F3D92BB-C206-4592-96F8-204ABA4E7E28}"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/23" xr:uid="{AEB72225-2CD0-4BD8-B37C-05ACDDE7AFB9}"/>
-    <hyperlink ref="A20" r:id="rId12" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/24" xr:uid="{23F89338-68A8-494A-B4D1-FC707F44CE9F}"/>
-    <hyperlink ref="A21" r:id="rId13" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/25" xr:uid="{96E5D202-7112-4852-A890-467B35269E48}"/>
-    <hyperlink ref="A22" r:id="rId14" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/26" xr:uid="{CEB36ED2-36F8-455D-8FE9-10C0B6CEDE1A}"/>
-    <hyperlink ref="A23" r:id="rId15" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/27" xr:uid="{0399D9CE-3366-4E55-9E04-573DBDC28875}"/>
-    <hyperlink ref="A24" r:id="rId16" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/28" xr:uid="{7FF2AED2-B88E-4DF5-8276-4D868B4CEED8}"/>
-    <hyperlink ref="A25" r:id="rId17" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/29" xr:uid="{A6E0AA3D-D2C8-476F-BDF4-CF5E521925A7}"/>
-    <hyperlink ref="A26" r:id="rId18" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/30" xr:uid="{C2BE5D42-9FB0-4B1A-877A-B89B24339329}"/>
-    <hyperlink ref="A27" r:id="rId19" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/31" xr:uid="{BB068EB2-1CD3-408C-8EC9-3805FF7C3DB4}"/>
-    <hyperlink ref="A28" r:id="rId20" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/32" xr:uid="{C803133A-2558-4AFF-97BD-BCF8881CD6FD}"/>
-    <hyperlink ref="A29" r:id="rId21" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/33" xr:uid="{8DC86A3B-17B5-499D-9342-BA31AF55DF76}"/>
-    <hyperlink ref="A31" r:id="rId22" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/35" xr:uid="{0832FF37-59CD-4F53-A650-93D1CC445A4B}"/>
-    <hyperlink ref="A32" r:id="rId23" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/36" xr:uid="{4D60EC2F-E9BA-4894-A97E-E3BD5E357E0A}"/>
-    <hyperlink ref="A33" r:id="rId24" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/37" xr:uid="{6A58502A-D427-4346-A061-7CF71463E176}"/>
-    <hyperlink ref="A34" r:id="rId25" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/38" xr:uid="{76E11008-1669-41A9-ABE6-73B55B410CAB}"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/39" xr:uid="{C9FE44DF-3130-450C-9A67-B00A2AF0C399}"/>
-    <hyperlink ref="A36" r:id="rId27" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/40" xr:uid="{8AEE9759-3825-4AAB-9061-F97FA20D1B46}"/>
-    <hyperlink ref="A37" r:id="rId28" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/44" xr:uid="{33B30511-ACB2-4B0E-BD35-3DDD132D855F}"/>
-    <hyperlink ref="A38" r:id="rId29" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/45" xr:uid="{63A1B24B-45C0-4AE0-8691-A59DE95D4418}"/>
-    <hyperlink ref="A39" r:id="rId30" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/46" xr:uid="{5F387E4E-F818-4C84-BBC8-130D11D89F0F}"/>
-    <hyperlink ref="A40" r:id="rId31" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/47" xr:uid="{92755B88-9BA3-47B6-9590-CBA36B65455C}"/>
-    <hyperlink ref="A41" r:id="rId32" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/48" xr:uid="{29343976-7A8F-4641-B82E-5998FD769764}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/2" xr:uid="{B9F1B892-8508-4D71-828F-91227B55AEC1}"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/6" xr:uid="{5A90BA1C-F2CB-4810-B2B7-A1CE1D379B0A}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/7" xr:uid="{43A1C437-67A0-42A5-AFB0-2E1A0F3CBCE6}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/11" xr:uid="{7926A5EA-1901-4EFB-AD26-CE326403FADA}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/17" xr:uid="{D42DC0AA-9DB4-41DE-9C7E-7CBA09CF2B1E}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/18" xr:uid="{E54BC07D-A892-427A-B857-8AA0CA885AB2}"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/19" xr:uid="{C33EE167-F5CD-4991-BADA-6CC400D5AFC2}"/>
+    <hyperlink ref="A13" r:id="rId8" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/20" xr:uid="{79752640-E243-4545-89ED-6722894B07B6}"/>
+    <hyperlink ref="A14" r:id="rId9" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/21" xr:uid="{356D0458-323F-4595-AF4E-3D3842EDB127}"/>
+    <hyperlink ref="A15" r:id="rId10" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/22" xr:uid="{1F3D92BB-C206-4592-96F8-204ABA4E7E28}"/>
+    <hyperlink ref="A16" r:id="rId11" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/23" xr:uid="{AEB72225-2CD0-4BD8-B37C-05ACDDE7AFB9}"/>
+    <hyperlink ref="A17" r:id="rId12" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/24" xr:uid="{23F89338-68A8-494A-B4D1-FC707F44CE9F}"/>
+    <hyperlink ref="A18" r:id="rId13" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/25" xr:uid="{96E5D202-7112-4852-A890-467B35269E48}"/>
+    <hyperlink ref="A19" r:id="rId14" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/26" xr:uid="{CEB36ED2-36F8-455D-8FE9-10C0B6CEDE1A}"/>
+    <hyperlink ref="A20" r:id="rId15" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/27" xr:uid="{0399D9CE-3366-4E55-9E04-573DBDC28875}"/>
+    <hyperlink ref="A21" r:id="rId16" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/28" xr:uid="{7FF2AED2-B88E-4DF5-8276-4D868B4CEED8}"/>
+    <hyperlink ref="A22" r:id="rId17" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/29" xr:uid="{A6E0AA3D-D2C8-476F-BDF4-CF5E521925A7}"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/30" xr:uid="{C2BE5D42-9FB0-4B1A-877A-B89B24339329}"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/31" xr:uid="{BB068EB2-1CD3-408C-8EC9-3805FF7C3DB4}"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/32" xr:uid="{C803133A-2558-4AFF-97BD-BCF8881CD6FD}"/>
+    <hyperlink ref="A26" r:id="rId21" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/33" xr:uid="{8DC86A3B-17B5-499D-9342-BA31AF55DF76}"/>
+    <hyperlink ref="A27" r:id="rId22" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/35" xr:uid="{0832FF37-59CD-4F53-A650-93D1CC445A4B}"/>
+    <hyperlink ref="A28" r:id="rId23" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/36" xr:uid="{4D60EC2F-E9BA-4894-A97E-E3BD5E357E0A}"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/37" xr:uid="{6A58502A-D427-4346-A061-7CF71463E176}"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/38" xr:uid="{76E11008-1669-41A9-ABE6-73B55B410CAB}"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/39" xr:uid="{C9FE44DF-3130-450C-9A67-B00A2AF0C399}"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/40" xr:uid="{8AEE9759-3825-4AAB-9061-F97FA20D1B46}"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/44" xr:uid="{33B30511-ACB2-4B0E-BD35-3DDD132D855F}"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/45" xr:uid="{63A1B24B-45C0-4AE0-8691-A59DE95D4418}"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/46" xr:uid="{5F387E4E-F818-4C84-BBC8-130D11D89F0F}"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/47" xr:uid="{92755B88-9BA3-47B6-9590-CBA36B65455C}"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/48" xr:uid="{29343976-7A8F-4641-B82E-5998FD769764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
